--- a/interface.xlsx
+++ b/interface.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="接口文档" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="167">
   <si>
     <t>url</t>
   </si>
@@ -172,7 +172,43 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>预约健身30min的价格(元</t>
+      <t>预约健身</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>30min</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>的价格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>元</t>
     </r>
     <r>
       <rPr>
@@ -185,13 +221,16 @@
     </r>
   </si>
   <si>
+    <t>单价或容量不为数值</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>同一时间段能容纳的人数</t>
+  </si>
+  <si>
     <t>价格错误</t>
-  </si>
-  <si>
-    <t>capacity</t>
-  </si>
-  <si>
-    <t>同一时间段能容纳的人数</t>
   </si>
   <si>
     <t>容纳人数错误</t>
@@ -632,6 +671,12 @@
   </si>
   <si>
     <t>密码不存在</t>
+  </si>
+  <si>
+    <t>action错误</t>
+  </si>
+  <si>
+    <t>未提供必要参数</t>
   </si>
 </sst>
 </file>
@@ -842,23 +887,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.8659793814433"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.020618556701"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.4587628865979"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.7577319587629"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.7319587628866"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8659793814433"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.319587628866"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.6855670103093"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.2319587628866"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.0927835051546"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.4587628865979"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.319587628866"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.0927835051546"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.4587628865979"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.319587628866"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1038,77 +1083,78 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7"/>
+      <c r="D10" s="5"/>
+      <c r="F10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="B11" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>46</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="C12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7"/>
-      <c r="D12" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>49</v>
       </c>
+      <c r="F12" s="0" t="s">
+        <v>49</v>
+      </c>
       <c r="H12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="7"/>
+      <c r="D13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="B14" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="0" t="s">
+      <c r="D14" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7"/>
-      <c r="D14" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>54</v>
@@ -1116,115 +1162,115 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="7"/>
+      <c r="D15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="B16" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7"/>
       <c r="D16" s="5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>58</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="H16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7"/>
       <c r="D17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>37</v>
       </c>
       <c r="H17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7"/>
       <c r="D18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="F18" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="H18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7"/>
       <c r="D19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G19" s="0" t="s">
         <v>65</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>67</v>
       </c>
       <c r="H19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7"/>
       <c r="D20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>68</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>70</v>
       </c>
       <c r="H20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7"/>
       <c r="D21" s="5" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="E21" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>71</v>
       </c>
       <c r="H21" s="6"/>
@@ -1232,17 +1278,17 @@
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7"/>
       <c r="D22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>72</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>73</v>
       </c>
       <c r="H22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7"/>
       <c r="D23" s="5" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>74</v>
@@ -1252,84 +1298,84 @@
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7"/>
       <c r="D24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7"/>
+      <c r="D25" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
+      <c r="E25" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="B26" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="0" t="s">
+      <c r="D26" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
+      <c r="E26" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="B27" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10"/>
       <c r="D27" s="0" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="F27" s="0" t="s">
+        <v>84</v>
+      </c>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10"/>
+      <c r="D28" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="B29" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10"/>
       <c r="D29" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>88</v>
@@ -1337,35 +1383,35 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="10"/>
+      <c r="D30" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="B31" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" s="0" t="n">
+      <c r="D31" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G30" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10"/>
-      <c r="D31" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="0" t="s">
+      <c r="G31" s="0" t="s">
         <v>93</v>
       </c>
       <c r="H31" s="6"/>
@@ -1373,103 +1419,103 @@
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10"/>
       <c r="D32" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>95</v>
       </c>
       <c r="H32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10"/>
       <c r="D33" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="0" t="s">
         <v>96</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>97</v>
       </c>
       <c r="H33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10"/>
       <c r="D34" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="0" t="s">
         <v>98</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>99</v>
       </c>
       <c r="H34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10"/>
       <c r="D35" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>101</v>
       </c>
       <c r="H35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10"/>
       <c r="D36" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="0" t="s">
         <v>102</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>103</v>
       </c>
       <c r="H36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10"/>
       <c r="D37" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="10"/>
+      <c r="D38" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
+      <c r="E38" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="0" t="s">
+      <c r="B39" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>111</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="E39" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="H39" s="6"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10"/>
+      <c r="C40" s="0" t="s">
+        <v>10</v>
+      </c>
       <c r="D40" s="0" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>113</v>
@@ -1479,7 +1525,7 @@
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="10"/>
       <c r="D41" s="0" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>114</v>
@@ -1489,7 +1535,7 @@
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="10"/>
       <c r="D42" s="0" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>115</v>
@@ -1499,7 +1545,7 @@
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="10"/>
       <c r="D43" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>116</v>
@@ -1509,37 +1555,37 @@
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="10"/>
       <c r="D44" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="0" t="s">
         <v>117</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>118</v>
       </c>
       <c r="H44" s="6"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="10"/>
       <c r="D45" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E45" s="0" t="s">
         <v>119</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>120</v>
       </c>
       <c r="H45" s="6"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="10"/>
       <c r="D46" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="E46" s="0" t="s">
         <v>121</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>122</v>
       </c>
       <c r="H46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="10"/>
       <c r="D47" s="0" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>123</v>
@@ -1549,196 +1595,206 @@
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10"/>
       <c r="D48" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="0" t="s">
         <v>124</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>125</v>
       </c>
       <c r="H48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="10"/>
       <c r="D49" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="E49" s="0" t="s">
-        <v>127</v>
-      </c>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="10"/>
       <c r="D50" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50" s="0" t="s">
         <v>128</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>129</v>
       </c>
       <c r="H50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="10"/>
       <c r="D51" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E51" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="E51" s="0" t="s">
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="10"/>
+      <c r="D52" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="H51" s="6"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="10" t="s">
+      <c r="E52" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="B53" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B53" s="0" t="s">
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="B54" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="E53" s="0" t="s">
+      <c r="D54" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="F53" s="0" t="n">
+      <c r="E54" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="F54" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G53" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="H53" s="6"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="10"/>
-      <c r="D54" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E54" s="0" t="s">
+      <c r="G54" s="0" t="s">
         <v>139</v>
-      </c>
-      <c r="F54" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G54" s="0" t="s">
-        <v>140</v>
       </c>
       <c r="H54" s="6"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="10"/>
       <c r="D55" s="0" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="E55" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G55" s="0" t="s">
         <v>141</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G55" s="0" t="s">
-        <v>142</v>
       </c>
       <c r="H55" s="6"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="10"/>
       <c r="D56" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E56" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G56" s="0" t="s">
         <v>143</v>
-      </c>
-      <c r="F56" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G56" s="0" t="s">
-        <v>59</v>
       </c>
       <c r="H56" s="6"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="10"/>
       <c r="D57" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>144</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="H57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="10"/>
       <c r="D58" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="E58" s="0" t="s">
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="10"/>
+      <c r="D59" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="H58" s="6"/>
-    </row>
-    <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="10" t="s">
+      <c r="E59" s="0" t="s">
         <v>147</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>150</v>
       </c>
       <c r="H59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E60" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="H60" s="6"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="11"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="13"/>
+      <c r="E61" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="11"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1756,23 +1812,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.4587628865979"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.319587628866"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8762886597938"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.319587628866"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1780,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1788,7 +1846,7 @@
         <v>-1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1796,7 +1854,7 @@
         <v>-2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1804,7 +1862,7 @@
         <v>-3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1812,7 +1870,7 @@
         <v>-4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1820,7 +1878,7 @@
         <v>-5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1828,7 +1886,7 @@
         <v>-6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1836,7 +1894,23 @@
         <v>-7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>-8</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>-9</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/interface.xlsx
+++ b/interface.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="接口文档" sheetId="1" state="visible" r:id="rId2"/>
@@ -463,6 +463,9 @@
     <t>只显示上过某个课程的用户</t>
   </si>
   <si>
+    <t>参数不是数值</t>
+  </si>
+  <si>
     <t>total_order_times_lb</t>
   </si>
   <si>
@@ -499,18 +502,6 @@
     <t>总消费时长上限</t>
   </si>
   <si>
-    <t>/admin/member?action=export</t>
-  </si>
-  <si>
-    <t>用户表格</t>
-  </si>
-  <si>
-    <t>uids</t>
-  </si>
-  <si>
-    <t>待到处用户id列表</t>
-  </si>
-  <si>
     <t>/admin/order?action=list</t>
   </si>
   <si>
@@ -577,6 +568,12 @@
     <t>服务id列表,显示要求这些服务的订单</t>
   </si>
   <si>
+    <t>/admin/export</t>
+  </si>
+  <si>
+    <t>导出表格</t>
+  </si>
+  <si>
     <t>/admin/coupon?action=list</t>
   </si>
   <si>
@@ -677,6 +674,9 @@
   </si>
   <si>
     <t>未提供必要参数</t>
+  </si>
+  <si>
+    <t>时间格式错误</t>
   </si>
 </sst>
 </file>
@@ -715,12 +715,24 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -813,7 +825,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -854,19 +866,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -879,6 +911,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -889,21 +981,19 @@
   </sheetPr>
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E50" activeCellId="0" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.7319587628866"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8659793814433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.319587628866"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.4587628865979"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5927835051546"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.6855670103093"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.2319587628866"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.0927835051546"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.319587628866"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.0463917525773"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.0927835051546"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.319587628866"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1153,10 +1243,10 @@
       <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="11" t="s">
         <v>54</v>
       </c>
       <c r="H14" s="6"/>
@@ -1334,7 +1424,7 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="12" t="s">
         <v>82</v>
       </c>
       <c r="B27" s="0" t="s">
@@ -1355,7 +1445,7 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10"/>
+      <c r="A28" s="12"/>
       <c r="D28" s="0" t="s">
         <v>80</v>
       </c>
@@ -1365,7 +1455,7 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="12" t="s">
         <v>86</v>
       </c>
       <c r="B29" s="0" t="s">
@@ -1383,7 +1473,7 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10"/>
+      <c r="A30" s="12"/>
       <c r="D30" s="0" t="s">
         <v>66</v>
       </c>
@@ -1393,7 +1483,7 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="12" t="s">
         <v>90</v>
       </c>
       <c r="B31" s="0" t="s">
@@ -1417,87 +1507,93 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10"/>
+      <c r="A32" s="12"/>
       <c r="D32" s="0" t="s">
         <v>80</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>94</v>
       </c>
+      <c r="F32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>95</v>
+      </c>
       <c r="H32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10"/>
+      <c r="A33" s="12"/>
       <c r="D33" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10"/>
+      <c r="A34" s="12"/>
       <c r="D34" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10"/>
+      <c r="A35" s="12"/>
       <c r="D35" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10"/>
+      <c r="A36" s="12"/>
       <c r="D36" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10"/>
+      <c r="A37" s="12"/>
       <c r="D37" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10"/>
+      <c r="A38" s="12"/>
       <c r="D38" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
-        <v>107</v>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>110</v>
@@ -1505,296 +1601,312 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="12"/>
+      <c r="D40" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="12"/>
+      <c r="D41" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="12"/>
+      <c r="D42" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="12"/>
+      <c r="D43" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="12"/>
+      <c r="D44" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="12"/>
+      <c r="D45" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="12"/>
+      <c r="D46" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="12"/>
+      <c r="D47" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="12"/>
+      <c r="D48" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="12"/>
+      <c r="D49" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="12"/>
+      <c r="D50" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="12"/>
+      <c r="D51" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10"/>
-      <c r="D41" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10"/>
-      <c r="D42" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="H42" s="6"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10"/>
-      <c r="D43" s="0" t="s">
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="15"/>
+    </row>
+    <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F54" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="H54" s="15"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="14"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F55" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="H55" s="15"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="14"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F56" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H56" s="15"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="14"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="H43" s="6"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10"/>
-      <c r="D44" s="0" t="s">
+      <c r="E57" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F57" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="14"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E44" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10"/>
-      <c r="D45" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10"/>
-      <c r="D46" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10"/>
-      <c r="D47" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="H47" s="6"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10"/>
-      <c r="D48" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10"/>
-      <c r="D49" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="H49" s="6"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10"/>
-      <c r="D50" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="H50" s="6"/>
-    </row>
-    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10"/>
-      <c r="D51" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="H51" s="6"/>
-    </row>
-    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="10"/>
-      <c r="D52" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H53" s="6"/>
-    </row>
-    <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="C54" s="0" t="s">
+      <c r="E58" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="14"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="15"/>
+    </row>
+    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="F54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G54" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="H54" s="6"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="10"/>
-      <c r="D55" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G55" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="H55" s="6"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="10"/>
-      <c r="D56" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="F56" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G56" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="H56" s="6"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="10"/>
-      <c r="D57" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="F57" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G57" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="H57" s="6"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="10"/>
-      <c r="D58" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="H58" s="6"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="10"/>
-      <c r="D59" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="H59" s="6"/>
-    </row>
-    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B60" s="0" t="s">
+      <c r="D60" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="E60" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="15"/>
+    </row>
+    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D61" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E61" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="E60" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="H60" s="6"/>
-    </row>
-    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B61" s="0" t="s">
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="15"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="16"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E62" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C61" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="E61" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="H61" s="6"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="11"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="13"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="18"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1812,25 +1924,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.319587628866"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8762886597938"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.319587628866"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.639175257732"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>155</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1838,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1846,7 +1956,7 @@
         <v>-1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1854,7 +1964,7 @@
         <v>-2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1862,7 +1972,7 @@
         <v>-3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1870,7 +1980,7 @@
         <v>-4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1878,7 +1988,7 @@
         <v>-5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1886,7 +1996,7 @@
         <v>-6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1894,7 +2004,7 @@
         <v>-7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1902,7 +2012,7 @@
         <v>-8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1910,6 +2020,14 @@
         <v>-9</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>-10</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>166</v>
       </c>
     </row>

--- a/interface.xlsx
+++ b/interface.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="168">
   <si>
     <t>url</t>
   </si>
@@ -172,43 +172,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>预约健身</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>30min</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>的价格</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>元</t>
+      <t>预约健身30min的价格(元</t>
     </r>
     <r>
       <rPr>
@@ -572,6 +536,9 @@
   </si>
   <si>
     <t>导出表格</t>
+  </si>
+  <si>
+    <t>表格格式错误</t>
   </si>
   <si>
     <t>/admin/coupon?action=list</t>
@@ -981,19 +948,21 @@
   </sheetPr>
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E50" activeCellId="0" sqref="E50"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G52" activeCellId="0" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.4587628865979"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5927835051546"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.3247422680412"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.4587628865979"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.59278350515464"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.6855670103093"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.2319587628866"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.0927835051546"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.0463917525773"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.9123711340206"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.0927835051546"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.59278350515464"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1730,14 +1699,20 @@
       <c r="C52" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="F52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>132</v>
+      </c>
       <c r="H52" s="6"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>20</v>
@@ -1750,25 +1725,25 @@
     </row>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F54" s="13" t="n">
         <v>1</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H54" s="15"/>
     </row>
@@ -1780,13 +1755,13 @@
         <v>29</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F55" s="13" t="n">
         <v>2</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H55" s="15"/>
     </row>
@@ -1798,13 +1773,13 @@
         <v>61</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F56" s="13" t="n">
         <v>3</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H56" s="15"/>
     </row>
@@ -1816,7 +1791,7 @@
         <v>63</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F57" s="13" t="n">
         <v>4</v>
@@ -1834,7 +1809,7 @@
         <v>66</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
@@ -1845,10 +1820,10 @@
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
@@ -1856,19 +1831,19 @@
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
@@ -1876,19 +1851,19 @@
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
@@ -1902,7 +1877,7 @@
         <v>48</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F62" s="17"/>
       <c r="G62" s="17"/>
@@ -1932,15 +1907,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.639175257732"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.59278350515464"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.5051546391753"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.59278350515464"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1948,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1956,7 +1933,7 @@
         <v>-1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1964,7 +1941,7 @@
         <v>-2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1972,7 +1949,7 @@
         <v>-3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1980,7 +1957,7 @@
         <v>-4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1988,7 +1965,7 @@
         <v>-5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1996,7 +1973,7 @@
         <v>-6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2004,7 +1981,7 @@
         <v>-7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2012,7 +1989,7 @@
         <v>-8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2020,7 +1997,7 @@
         <v>-9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2028,7 +2005,7 @@
         <v>-10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
